--- a/notas/notas_projetos.xlsx
+++ b/notas/notas_projetos.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>nome</t>
   </si>
@@ -313,6 +313,45 @@
     <t xml:space="preserve">Descreveu de forma completa os objetivos, método e resultados. Também fez uma demonstração no final. </t>
   </si>
   <si>
+    <t>https://www.mediafire.com/file/24wthhrgt8xhgxo/2025-05-28_11-43-01.mp4/file</t>
+  </si>
+  <si>
+    <t>https://github.com/insper-classroom/projeto-final-tictacthose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jogo maluco do Maraba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentação bem completa no repositório. O código poderia ter uma estrutura melhor. Apenas 2 arquivos? Um arquivo com quase mil linhas? Isto pode ser bem difícil de ser feito a manutenção.  A qualidade do vídeo não está boa. O áudio está muito baixo. Compromete o entendimento do mesmo. Porque o vídeo não foi colocado no youtube? </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LZVSS6l-aBk</t>
+  </si>
+  <si>
+    <t>https://github.com/insper-classroom/projeto-final-rl_holdem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jogador de poker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentação bem completa e muito bem estruturada. Repositório bem organizado. Só senti falta de uma comparação com os resultados obtidos no artigo ou, pelo menos, uma apresentação dos resultados obtidos pelo artigo. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=poQ3MYp-v1c</t>
+  </si>
+  <si>
+    <t>https://github.com/insper-classroom/projeto-final-transfer_learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer learning</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalho bem estruturado e executado. A qualidade do vídeo não ficou boa. Por algum motivo, durante a apresentação do código, o vídeo fica com uma resolução bem ruim. A versão final do relatório (arquivo pdf) poderia estar no repositório também. Assim quem for ler não precisa fazer o checkout do repositório e compilar o relatório. </t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=ed0pmwgJlKs</t>
   </si>
   <si>
@@ -337,12 +376,54 @@
     <t xml:space="preserve">A apresentação poderia ser melhor. Você focou muito em detalhes de implementação. Neste tipo de apresentação é necessário justificar o porquê usar RL no problema, deixar claro como o agente vê o mundo e qual é a função de reward. Estes pontos você não mostrou na apresentação. A apresentação dos resultados do treinamento foi boa. </t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=kz3tYt6RRac</t>
+  </si>
+  <si>
+    <t>https://github.com/insper-classroom/projeto-final-realstatesimulator_sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulador de Mercado Imobiliário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalho bem estruturado e executado. Dúvidas: o agente pode colocar um imóvel à venda. Quem decide comprar? Como é que o ambiente decide se compra ou não? Sobre a função de recompensa, você tentou algo mais simples? Por exemplo, considerando apenas a valorização patrimonial líquida? </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73VARwhd1N0</t>
+  </si>
+  <si>
+    <t>https://github.com/insper-classroom/projeto-final-o-tal-do-david-silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curriculum Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalho bem estruturado e bem executado. Por algum motivo, no vídeo não foi possível ver a demonstração da inferência dos dois ambientes. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7vTK1-8NKrY</t>
+  </si>
+  <si>
+    <t>https://github.com/insper-classroom/projeto-final-prisoner-dilemma-rl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterated Prisoner’s Dilemma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalho bem estruturado e bem executado. A minha única dúvida é quem tem o melhor desempenho o Tit-For-Tat ou o Q-learning? Porque vocês não mediram isto? </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OR_fck8NpK0</t>
+  </si>
+  <si>
     <t>https://github.com/insper-classroom/projeto-final-minigrid_joao_marinna</t>
   </si>
   <si>
     <t xml:space="preserve">Minigrid Unlock</t>
   </si>
   <si>
+    <t xml:space="preserve">Apresentação completa e bem estruturada. O repositório está bem estruturado e bem documentado. Como trabalho final vocês poderiam pegar uma versão do minigrid mais complexa. Fiquei um pouco decepcionado com a versão que vocês escolheram. </t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NgMjL4eOdlA</t>
   </si>
   <si>
@@ -355,6 +436,15 @@
     <t xml:space="preserve">Na apresentação não fica claro como o agente enxerga o ambiente. Imagino que o agente tem acesso a um conjunto sequencial de aplicações. Qual é o tamanho da janela? Não ficoui claro na apresentação porque usar RL em um problema que parece ser de AM supervisionado. Lembro que em alguma conversa em sala de aula discutimos isto. </t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Y7EYobqg8Gc</t>
+  </si>
+  <si>
+    <t>https://github.com/insper-classroom/projeto-final-projeto_final_rl_mprb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalho bem estruturado e bem executado. Senti falta de uma comparação entre um agente que aprendeu a jogar com Q-Learning versus um agente Tit-For-Tat. Iria ficar muito legal se vocês fizessem esta comparação.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minigird Unlock</t>
   </si>
   <si>
@@ -365,9 +455,6 @@
   </si>
   <si>
     <t xml:space="preserve">ambiente competitivo</t>
-  </si>
-  <si>
-    <t>9,5</t>
   </si>
   <si>
     <t xml:space="preserve">Resultados bem apresentados, com métricas adequadas. Repositório bem organizado. Faltou uma demonstração da inferência dos agentes - os agentes jogando, mesmo que em modo fast. </t>
@@ -437,22 +524,24 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,10 +1123,10 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J3">
@@ -1124,13 +1213,13 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F6" t="s">
@@ -1223,7 +1312,7 @@
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1357,7 +1446,7 @@
       <c r="B13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1448,7 +1537,7 @@
       <c r="J15">
         <v>10</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1561,7 +1650,7 @@
       <c r="B19" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1660,18 +1749,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.57421875"/>
+    <col customWidth="1" min="1" max="1" width="35.28125"/>
     <col customWidth="1" min="2" max="2" width="19.28125"/>
-    <col customWidth="1" min="3" max="3" width="45.7109375"/>
-    <col customWidth="1" min="4" max="4" width="61.8515625"/>
-    <col customWidth="1" min="5" max="5" width="21.8515625"/>
+    <col customWidth="1" min="3" max="3" width="46.57421875"/>
+    <col customWidth="1" min="4" max="4" width="64.00390625"/>
+    <col customWidth="1" min="5" max="5" width="30.28125"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1691,10 +1780,10 @@
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -1706,292 +1795,442 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E13" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F13" s="6">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="4">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    <row r="14" ht="14.25">
+      <c r="A14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="4">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="G19" t="s">
-        <v>117</v>
-      </c>
-    </row>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="C6"/>
-    <hyperlink r:id="rId3" ref="D6"/>
-    <hyperlink r:id="rId4" ref="C7"/>
-    <hyperlink r:id="rId5" ref="D7"/>
-    <hyperlink r:id="rId6" ref="D11"/>
-    <hyperlink r:id="rId7" ref="C12"/>
-    <hyperlink r:id="rId8" ref="D12"/>
-    <hyperlink r:id="rId6" ref="D15"/>
-    <hyperlink r:id="rId2" ref="C18"/>
-    <hyperlink r:id="rId3" ref="D18"/>
-    <hyperlink r:id="rId9" ref="C19"/>
-    <hyperlink r:id="rId10" ref="D19"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="D3"/>
+    <hyperlink r:id="rId4" ref="C4"/>
+    <hyperlink r:id="rId5" ref="D4"/>
+    <hyperlink r:id="rId6" ref="C5"/>
+    <hyperlink r:id="rId7" ref="D5"/>
+    <hyperlink r:id="rId8" ref="C6"/>
+    <hyperlink r:id="rId9" ref="D6"/>
+    <hyperlink r:id="rId10" ref="C7"/>
+    <hyperlink r:id="rId11" ref="D7"/>
+    <hyperlink r:id="rId12" ref="C8"/>
+    <hyperlink r:id="rId13" ref="D8"/>
+    <hyperlink r:id="rId14" ref="C9"/>
+    <hyperlink r:id="rId15" ref="D9"/>
+    <hyperlink r:id="rId16" ref="C10"/>
+    <hyperlink r:id="rId17" ref="D10"/>
+    <hyperlink r:id="rId18" ref="C11"/>
+    <hyperlink r:id="rId19" ref="D11"/>
+    <hyperlink r:id="rId20" ref="C12"/>
+    <hyperlink r:id="rId21" ref="D12"/>
+    <hyperlink r:id="rId2" ref="C13"/>
+    <hyperlink r:id="rId3" ref="D13"/>
+    <hyperlink r:id="rId22" ref="C14"/>
+    <hyperlink r:id="rId23" ref="D14"/>
+    <hyperlink r:id="rId18" ref="C15"/>
+    <hyperlink r:id="rId19" ref="D15"/>
+    <hyperlink r:id="rId16" ref="C16"/>
+    <hyperlink r:id="rId17" ref="D16"/>
+    <hyperlink r:id="rId22" ref="C17"/>
+    <hyperlink r:id="rId23" ref="D17"/>
+    <hyperlink r:id="rId8" ref="C18"/>
+    <hyperlink r:id="rId9" ref="D18"/>
+    <hyperlink r:id="rId24" ref="C19"/>
+    <hyperlink r:id="rId25" ref="D19"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
